--- a/Meeting.xlsx
+++ b/Meeting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Talking about Company's Website Hosting &amp; Solving Skrill Account Problem</t>
+  </si>
+  <si>
+    <t>Mirpur - 12 Bus Stand</t>
+  </si>
+  <si>
+    <t>Talking about Company's Logo &amp; Website Design</t>
   </si>
 </sst>
 </file>
@@ -439,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,12 +609,24 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="4">
+        <v>43385</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
